--- a/Lessons/Lesson07/Lesson07_InClass.xlsx
+++ b/Lessons/Lesson07/Lesson07_InClass.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/afb04e5a841adf33/Documents/GitHub/IntroToExcel/Lessons/Lesson07/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1166" documentId="8_{6E0834F5-0716-450D-B571-FFED9EF196C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{01BBB429-DB26-4BFF-B689-E011E0848FAE}"/>
+  <xr:revisionPtr revIDLastSave="1167" documentId="8_{6E0834F5-0716-450D-B571-FFED9EF196C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{60AF021D-9945-4ADD-A5AC-3B9F9FBAD577}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{049B9E44-5316-44AE-9DFA-B00E57B7517A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lesson 5" sheetId="1" r:id="rId1"/>
+    <sheet name="Lesson 7" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="8" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="ctable">#REF!</definedName>
   </definedNames>
@@ -350,21 +347,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="#REF"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
